--- a/analysis/supplementary_materials/supplementary_spheroids_metrics.xlsx
+++ b/analysis/supplementary_materials/supplementary_spheroids_metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lithic_Analysis\QSYSpheroidsStudy\analysis\supplementary_materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62435D0B-EF43-4D96-BD9B-F672AB9A6B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986673E7-4C0B-4B12-A8FC-03AB37ADD383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2ED60FBA-E623-4C3A-A256-DF261C5BABF6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="100">
   <si>
     <t>No.</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -395,7 +395,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>平坦自然台面向对面剥片</t>
     </r>
@@ -447,7 +446,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -457,7 +455,6 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -474,7 +471,6 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -733,27 +729,36 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -768,15 +773,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1615,97 +1611,97 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22:Q22"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:16" s="12" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="29" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="30"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="12" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="19" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="25"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:16" s="12" customFormat="1" ht="8.4" customHeight="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
     </row>
     <row r="4" spans="1:16" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="13" t="s">
@@ -1891,7 +1887,7 @@
       <c r="M7" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="N7" s="33" t="s">
+      <c r="N7" s="19" t="s">
         <v>99</v>
       </c>
       <c r="O7" s="14" t="s">
@@ -1938,7 +1934,7 @@
       <c r="M8" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="N8" s="33" t="s">
+      <c r="N8" s="19" t="s">
         <v>99</v>
       </c>
       <c r="O8" s="14" t="s">
@@ -2200,7 +2196,9 @@
         <v>32</v>
       </c>
       <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="G14" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="H14" s="13">
         <v>14</v>
       </c>
@@ -2219,7 +2217,7 @@
       <c r="M14" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="N14" s="33" t="s">
+      <c r="N14" s="19" t="s">
         <v>99</v>
       </c>
       <c r="O14" s="13" t="s">
@@ -2244,7 +2242,9 @@
         <v>92</v>
       </c>
       <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="G15" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="H15" s="13" t="s">
         <v>96</v>
       </c>
@@ -2263,7 +2263,7 @@
       <c r="M15" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="N15" s="33" t="s">
+      <c r="N15" s="19" t="s">
         <v>99</v>
       </c>
       <c r="O15" s="13" t="s">
@@ -2309,7 +2309,7 @@
       <c r="M16" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="N16" s="33" t="s">
+      <c r="N16" s="19" t="s">
         <v>99</v>
       </c>
       <c r="O16" s="14" t="s">
@@ -2321,17 +2321,10 @@
       <c r="N17" s="13"/>
     </row>
     <row r="18" spans="14:14">
-      <c r="N18" s="33"/>
+      <c r="N18" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="N2:N3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:K1"/>
@@ -2341,6 +2334,13 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="14">

--- a/analysis/supplementary_materials/supplementary_spheroids_metrics.xlsx
+++ b/analysis/supplementary_materials/supplementary_spheroids_metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lithic_Analysis\QSYSpheroidsStudy\analysis\supplementary_materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986673E7-4C0B-4B12-A8FC-03AB37ADD383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D58AA0-458B-4DB6-ADC5-3065F13F62EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2ED60FBA-E623-4C3A-A256-DF261C5BABF6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="99">
   <si>
     <t>No.</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -128,10 +128,6 @@
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -356,9 +352,6 @@
   </si>
   <si>
     <t>从平坦面向对面剥片</t>
-  </si>
-  <si>
-    <t>两极对向剥片，台面向心剥片</t>
   </si>
   <si>
     <t>?</t>
@@ -395,6 +388,8 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>平坦自然台面向对面剥片</t>
     </r>
@@ -417,6 +412,10 @@
   </si>
   <si>
     <t>continuous</t>
+  </si>
+  <si>
+    <t>QSY-A-0682</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -446,6 +445,8 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -455,6 +456,8 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -471,6 +474,8 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -671,7 +676,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,6 +736,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1101,51 +1109,51 @@
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="16.2">
       <c r="A1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.2">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -1166,21 +1174,21 @@
         <v>247</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.2">
       <c r="A3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -1201,21 +1209,21 @@
         <v>202</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.2">
       <c r="A4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -1241,16 +1249,16 @@
     </row>
     <row r="5" spans="1:11" ht="16.2">
       <c r="A5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="E5" s="4">
         <v>2</v>
@@ -1276,16 +1284,16 @@
     </row>
     <row r="6" spans="1:11" ht="16.2">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
@@ -1311,16 +1319,16 @@
     </row>
     <row r="7" spans="1:11" ht="16.2">
       <c r="A7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -1341,21 +1349,21 @@
         <v>316.8</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.2">
       <c r="A8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -1381,16 +1389,16 @@
     </row>
     <row r="9" spans="1:11" ht="16.2">
       <c r="A9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -1416,16 +1424,16 @@
     </row>
     <row r="10" spans="1:11" ht="16.2">
       <c r="A10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -1451,16 +1459,16 @@
     </row>
     <row r="11" spans="1:11" ht="16.2">
       <c r="A11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -1481,21 +1489,21 @@
         <v>355</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.2">
       <c r="A12" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -1521,16 +1529,16 @@
     </row>
     <row r="13" spans="1:11" ht="16.2">
       <c r="A13" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
@@ -1556,16 +1564,16 @@
     </row>
     <row r="14" spans="1:11" ht="16.2">
       <c r="A14" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -1611,149 +1619,149 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" s="12" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="32" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="33"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="12" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="21" t="s">
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="20"/>
+      <c r="O2" s="21"/>
     </row>
     <row r="3" spans="1:16" s="12" customFormat="1" ht="8.4" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-    </row>
-    <row r="4" spans="1:16" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+    </row>
+    <row r="4" spans="1:16" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" s="13" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>79</v>
-      </c>
       <c r="H4" s="17">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" s="5" customFormat="1" ht="16.5" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>18</v>
@@ -1762,188 +1770,189 @@
         <v>18</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H5" s="17">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16" s="5" customFormat="1" ht="16.5" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>79</v>
-      </c>
       <c r="H6" s="17">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" s="5" customFormat="1" ht="21" customHeight="1">
+    <row r="7" spans="1:16" s="5" customFormat="1" ht="16.5" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H7" s="17">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="19" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="5" customFormat="1" ht="16.5" customHeight="1">
+        <v>80</v>
+      </c>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" s="5" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H8" s="17">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="13" t="s">
-        <v>25</v>
+      <c r="J8" s="13">
+        <v>1</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="5" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>18</v>
@@ -1955,13 +1964,13 @@
         <v>19</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" s="17">
         <v>26</v>
@@ -1973,24 +1982,24 @@
         <v>3</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="5" customFormat="1" ht="16.5" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>22</v>
@@ -1999,16 +2008,16 @@
         <v>18</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H10" s="17">
         <v>22</v>
@@ -2023,22 +2032,22 @@
         <v>21</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16" s="5" customFormat="1" ht="16.5" customHeight="1">
       <c r="A11" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>17</v>
@@ -2050,13 +2059,13 @@
         <v>19</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>79</v>
       </c>
       <c r="H11" s="17">
         <v>20</v>
@@ -2071,21 +2080,21 @@
         <v>21</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="5" customFormat="1" ht="16.5" customHeight="1">
       <c r="A12" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>17</v>
@@ -2094,16 +2103,16 @@
         <v>23</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F12" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="17">
         <v>27</v>
@@ -2118,22 +2127,22 @@
         <v>21</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16" s="5" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>18</v>
@@ -2142,16 +2151,16 @@
         <v>18</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>79</v>
       </c>
       <c r="H13" s="17">
         <v>28</v>
@@ -2163,25 +2172,25 @@
         <v>2</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M13" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="O13" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>81</v>
       </c>
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="A14" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>17</v>
@@ -2193,11 +2202,11 @@
         <v>19</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H14" s="13">
         <v>14</v>
@@ -2212,41 +2221,41 @@
         <v>21</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" s="2" customFormat="1" ht="16.2" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>20</v>
@@ -2258,22 +2267,22 @@
         <v>21</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" s="2" customFormat="1" ht="16.2" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>17</v>
@@ -2285,12 +2294,14 @@
         <v>23</v>
       </c>
       <c r="E16" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="13"/>
+      <c r="G16" s="13" t="s">
+        <v>81</v>
+      </c>
       <c r="H16" s="13">
         <v>15</v>
       </c>
@@ -2304,16 +2315,16 @@
         <v>21</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P16" s="1"/>
     </row>
@@ -2344,46 +2355,46 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVR7:WVS16 JF7:JG16 TB7:TC16 ACX7:ACY16 AMT7:AMU16 AWP7:AWQ16 BGL7:BGM16 BQH7:BQI16 CAD7:CAE16 CJZ7:CKA16 CTV7:CTW16 DDR7:DDS16 DNN7:DNO16 DXJ7:DXK16 EHF7:EHG16 ERB7:ERC16 FAX7:FAY16 FKT7:FKU16 FUP7:FUQ16 GEL7:GEM16 GOH7:GOI16 GYD7:GYE16 HHZ7:HIA16 HRV7:HRW16 IBR7:IBS16 ILN7:ILO16 IVJ7:IVK16 JFF7:JFG16 JPB7:JPC16 JYX7:JYY16 KIT7:KIU16 KSP7:KSQ16 LCL7:LCM16 LMH7:LMI16 LWD7:LWE16 MFZ7:MGA16 MPV7:MPW16 MZR7:MZS16 NJN7:NJO16 NTJ7:NTK16 ODF7:ODG16 ONB7:ONC16 OWX7:OWY16 PGT7:PGU16 PQP7:PQQ16 QAL7:QAM16 QKH7:QKI16 QUD7:QUE16 RDZ7:REA16 RNV7:RNW16 RXR7:RXS16 SHN7:SHO16 SRJ7:SRK16 TBF7:TBG16 TLB7:TLC16 TUX7:TUY16 UET7:UEU16 UOP7:UOQ16 UYL7:UYM16 VIH7:VII16 VSD7:VSE16 WBZ7:WCA16 WLV7:WLW16 L9:L16" xr:uid="{22B0F151-065A-4BCD-96FC-62A00A7BEE6F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L16 WLV8:WLW16 WBZ8:WCA16 VSD8:VSE16 VIH8:VII16 UYL8:UYM16 UOP8:UOQ16 UET8:UEU16 TUX8:TUY16 TLB8:TLC16 TBF8:TBG16 SRJ8:SRK16 SHN8:SHO16 RXR8:RXS16 RNV8:RNW16 RDZ8:REA16 QUD8:QUE16 QKH8:QKI16 QAL8:QAM16 PQP8:PQQ16 PGT8:PGU16 OWX8:OWY16 ONB8:ONC16 ODF8:ODG16 NTJ8:NTK16 NJN8:NJO16 MZR8:MZS16 MPV8:MPW16 MFZ8:MGA16 LWD8:LWE16 LMH8:LMI16 LCL8:LCM16 KSP8:KSQ16 KIT8:KIU16 JYX8:JYY16 JPB8:JPC16 JFF8:JFG16 IVJ8:IVK16 ILN8:ILO16 IBR8:IBS16 HRV8:HRW16 HHZ8:HIA16 GYD8:GYE16 GOH8:GOI16 GEL8:GEM16 FUP8:FUQ16 FKT8:FKU16 FAX8:FAY16 ERB8:ERC16 EHF8:EHG16 DXJ8:DXK16 DNN8:DNO16 DDR8:DDS16 CTV8:CTW16 CJZ8:CKA16 CAD8:CAE16 BQH8:BQI16 BGL8:BGM16 AWP8:AWQ16 AMT8:AMU16 ACX8:ACY16 TB8:TC16 JF8:JG16 WVR8:WVS16" xr:uid="{22B0F151-065A-4BCD-96FC-62A00A7BEE6F}">
       <formula1>"large flakes, orthogonal flakes, small flakes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E8 IZ15:IZ16 SV15:SV16 ACR15:ACR16 AMN15:AMN16 AWJ15:AWJ16 BGF15:BGF16 BQB15:BQB16 BZX15:BZX16 CJT15:CJT16 CTP15:CTP16 DDL15:DDL16 DNH15:DNH16 DXD15:DXD16 EGZ15:EGZ16 EQV15:EQV16 FAR15:FAR16 FKN15:FKN16 FUJ15:FUJ16 GEF15:GEF16 GOB15:GOB16 GXX15:GXX16 HHT15:HHT16 HRP15:HRP16 IBL15:IBL16 ILH15:ILH16 IVD15:IVD16 JEZ15:JEZ16 JOV15:JOV16 JYR15:JYR16 KIN15:KIN16 KSJ15:KSJ16 LCF15:LCF16 LMB15:LMB16 LVX15:LVX16 MFT15:MFT16 MPP15:MPP16 MZL15:MZL16 NJH15:NJH16 NTD15:NTD16 OCZ15:OCZ16 OMV15:OMV16 OWR15:OWR16 PGN15:PGN16 PQJ15:PQJ16 QAF15:QAF16 QKB15:QKB16 QTX15:QTX16 RDT15:RDT16 RNP15:RNP16 RXL15:RXL16 SHH15:SHH16 SRD15:SRD16 TAZ15:TAZ16 TKV15:TKV16 TUR15:TUR16 UEN15:UEN16 UOJ15:UOJ16 UYF15:UYF16 VIB15:VIB16 VRX15:VRX16 WBT15:WBT16 WLP15:WLP16 WVL15:WVL16 IZ5:IZ6 SV5:SV6 ACR5:ACR6 AMN5:AMN6 AWJ5:AWJ6 BGF5:BGF6 BQB5:BQB6 BZX5:BZX6 CJT5:CJT6 CTP5:CTP6 DDL5:DDL6 DNH5:DNH6 DXD5:DXD6 EGZ5:EGZ6 EQV5:EQV6 FAR5:FAR6 FKN5:FKN6 FUJ5:FUJ6 GEF5:GEF6 GOB5:GOB6 GXX5:GXX6 HHT5:HHT6 HRP5:HRP6 IBL5:IBL6 ILH5:ILH6 IVD5:IVD6 JEZ5:JEZ6 JOV5:JOV6 JYR5:JYR6 KIN5:KIN6 KSJ5:KSJ6 LCF5:LCF6 LMB5:LMB6 LVX5:LVX6 MFT5:MFT6 MPP5:MPP6 MZL5:MZL6 NJH5:NJH6 NTD5:NTD6 OCZ5:OCZ6 OMV5:OMV6 OWR5:OWR6 PGN5:PGN6 PQJ5:PQJ6 QAF5:QAF6 QKB5:QKB6 QTX5:QTX6 RDT5:RDT6 RNP5:RNP6 RXL5:RXL6 SHH5:SHH6 SRD5:SRD6 TAZ5:TAZ6 TKV5:TKV6 TUR5:TUR6 UEN5:UEN6 UOJ5:UOJ6 UYF5:UYF6 VIB5:VIB6 VRX5:VRX6 WBT5:WBT6 WLP5:WLP6 WVL5:WVL6 IZ7:JA10 SV7:SW10 ACR7:ACS10 AMN7:AMO10 AWJ7:AWK10 BGF7:BGG10 BQB7:BQC10 BZX7:BZY10 CJT7:CJU10 CTP7:CTQ10 DDL7:DDM10 DNH7:DNI10 DXD7:DXE10 EGZ7:EHA10 EQV7:EQW10 FAR7:FAS10 FKN7:FKO10 FUJ7:FUK10 GEF7:GEG10 GOB7:GOC10 GXX7:GXY10 HHT7:HHU10 HRP7:HRQ10 IBL7:IBM10 ILH7:ILI10 IVD7:IVE10 JEZ7:JFA10 JOV7:JOW10 JYR7:JYS10 KIN7:KIO10 KSJ7:KSK10 LCF7:LCG10 LMB7:LMC10 LVX7:LVY10 MFT7:MFU10 MPP7:MPQ10 MZL7:MZM10 NJH7:NJI10 NTD7:NTE10 OCZ7:ODA10 OMV7:OMW10 OWR7:OWS10 PGN7:PGO10 PQJ7:PQK10 QAF7:QAG10 QKB7:QKC10 QTX7:QTY10 RDT7:RDU10 RNP7:RNQ10 RXL7:RXM10 SHH7:SHI10 SRD7:SRE10 TAZ7:TBA10 TKV7:TKW10 TUR7:TUS10 UEN7:UEO10 UOJ7:UOK10 UYF7:UYG10 VIB7:VIC10 VRX7:VRY10 WBT7:WBU10 WLP7:WLQ10 WVL7:WVM10 IZ12:IZ13 SV12:SV13 ACR12:ACR13 AMN12:AMN13 AWJ12:AWJ13 BGF12:BGF13 BQB12:BQB13 BZX12:BZX13 CJT12:CJT13 CTP12:CTP13 DDL12:DDL13 DNH12:DNH13 DXD12:DXD13 EGZ12:EGZ13 EQV12:EQV13 FAR12:FAR13 FKN12:FKN13 FUJ12:FUJ13 GEF12:GEF13 GOB12:GOB13 GXX12:GXX13 HHT12:HHT13 HRP12:HRP13 IBL12:IBL13 ILH12:ILH13 IVD12:IVD13 JEZ12:JEZ13 JOV12:JOV13 JYR12:JYR13 KIN12:KIN13 KSJ12:KSJ13 LCF12:LCF13 LMB12:LMB13 LVX12:LVX13 MFT12:MFT13 MPP12:MPP13 MZL12:MZL13 NJH12:NJH13 NTD12:NTD13 OCZ12:OCZ13 OMV12:OMV13 OWR12:OWR13 PGN12:PGN13 PQJ12:PQJ13 QAF12:QAF13 QKB12:QKB13 QTX12:QTX13 RDT12:RDT13 RNP12:RNP13 RXL12:RXL13 SHH12:SHH13 SRD12:SRD13 TAZ12:TAZ13 TKV12:TKV13 TUR12:TUR13 UEN12:UEN13 UOJ12:UOJ13 UYF12:UYF13 VIB12:VIB13 VRX12:VRX13 WBT12:WBT13 WLP12:WLP13 WVL12:WVL13 E10:E13 E15:F16" xr:uid="{3C527FFC-5B4C-499D-AB6F-CEB06DC31A1C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E8 IZ15:IZ16 SV15:SV16 ACR15:ACR16 AMN15:AMN16 AWJ15:AWJ16 BGF15:BGF16 BQB15:BQB16 BZX15:BZX16 CJT15:CJT16 CTP15:CTP16 DDL15:DDL16 DNH15:DNH16 DXD15:DXD16 EGZ15:EGZ16 EQV15:EQV16 FAR15:FAR16 FKN15:FKN16 FUJ15:FUJ16 GEF15:GEF16 GOB15:GOB16 GXX15:GXX16 HHT15:HHT16 HRP15:HRP16 IBL15:IBL16 ILH15:ILH16 IVD15:IVD16 JEZ15:JEZ16 JOV15:JOV16 JYR15:JYR16 KIN15:KIN16 KSJ15:KSJ16 LCF15:LCF16 LMB15:LMB16 LVX15:LVX16 MFT15:MFT16 MPP15:MPP16 MZL15:MZL16 NJH15:NJH16 NTD15:NTD16 OCZ15:OCZ16 OMV15:OMV16 OWR15:OWR16 PGN15:PGN16 PQJ15:PQJ16 QAF15:QAF16 QKB15:QKB16 QTX15:QTX16 RDT15:RDT16 RNP15:RNP16 RXL15:RXL16 SHH15:SHH16 SRD15:SRD16 TAZ15:TAZ16 TKV15:TKV16 TUR15:TUR16 UEN15:UEN16 UOJ15:UOJ16 UYF15:UYF16 VIB15:VIB16 VRX15:VRX16 WBT15:WBT16 WLP15:WLP16 WVL15:WVL16 IZ6:IZ7 SV6:SV7 ACR6:ACR7 AMN6:AMN7 AWJ6:AWJ7 BGF6:BGF7 BQB6:BQB7 BZX6:BZX7 CJT6:CJT7 CTP6:CTP7 DDL6:DDL7 DNH6:DNH7 DXD6:DXD7 EGZ6:EGZ7 EQV6:EQV7 FAR6:FAR7 FKN6:FKN7 FUJ6:FUJ7 GEF6:GEF7 GOB6:GOB7 GXX6:GXX7 HHT6:HHT7 HRP6:HRP7 IBL6:IBL7 ILH6:ILH7 IVD6:IVD7 JEZ6:JEZ7 JOV6:JOV7 JYR6:JYR7 KIN6:KIN7 KSJ6:KSJ7 LCF6:LCF7 LMB6:LMB7 LVX6:LVX7 MFT6:MFT7 MPP6:MPP7 MZL6:MZL7 NJH6:NJH7 NTD6:NTD7 OCZ6:OCZ7 OMV6:OMV7 OWR6:OWR7 PGN6:PGN7 PQJ6:PQJ7 QAF6:QAF7 QKB6:QKB7 QTX6:QTX7 RDT6:RDT7 RNP6:RNP7 RXL6:RXL7 SHH6:SHH7 SRD6:SRD7 TAZ6:TAZ7 TKV6:TKV7 TUR6:TUR7 UEN6:UEN7 UOJ6:UOJ7 UYF6:UYF7 VIB6:VIB7 VRX6:VRX7 WBT6:WBT7 WLP6:WLP7 WVL6:WVL7 IZ12:IZ13 SV12:SV13 ACR12:ACR13 AMN12:AMN13 AWJ12:AWJ13 BGF12:BGF13 BQB12:BQB13 BZX12:BZX13 CJT12:CJT13 CTP12:CTP13 DDL12:DDL13 DNH12:DNH13 DXD12:DXD13 EGZ12:EGZ13 EQV12:EQV13 FAR12:FAR13 FKN12:FKN13 FUJ12:FUJ13 GEF12:GEF13 GOB12:GOB13 GXX12:GXX13 HHT12:HHT13 HRP12:HRP13 IBL12:IBL13 ILH12:ILH13 IVD12:IVD13 JEZ12:JEZ13 JOV12:JOV13 JYR12:JYR13 KIN12:KIN13 KSJ12:KSJ13 LCF12:LCF13 LMB12:LMB13 LVX12:LVX13 MFT12:MFT13 MPP12:MPP13 MZL12:MZL13 NJH12:NJH13 NTD12:NTD13 OCZ12:OCZ13 OMV12:OMV13 OWR12:OWR13 PGN12:PGN13 PQJ12:PQJ13 QAF12:QAF13 QKB12:QKB13 QTX12:QTX13 RDT12:RDT13 RNP12:RNP13 RXL12:RXL13 SHH12:SHH13 SRD12:SRD13 TAZ12:TAZ13 TKV12:TKV13 TUR12:TUR13 UEN12:UEN13 UOJ12:UOJ13 UYF12:UYF13 VIB12:VIB13 VRX12:VRX13 WBT12:WBT13 WLP12:WLP13 WVL12:WVL13 E10:E13 E15:F16 WVL8:WVM10 WLP8:WLQ10 WBT8:WBU10 VRX8:VRY10 VIB8:VIC10 UYF8:UYG10 UOJ8:UOK10 UEN8:UEO10 TUR8:TUS10 TKV8:TKW10 TAZ8:TBA10 SRD8:SRE10 SHH8:SHI10 RXL8:RXM10 RNP8:RNQ10 RDT8:RDU10 QTX8:QTY10 QKB8:QKC10 QAF8:QAG10 PQJ8:PQK10 PGN8:PGO10 OWR8:OWS10 OMV8:OMW10 OCZ8:ODA10 NTD8:NTE10 NJH8:NJI10 MZL8:MZM10 MPP8:MPQ10 MFT8:MFU10 LVX8:LVY10 LMB8:LMC10 LCF8:LCG10 KSJ8:KSK10 KIN8:KIO10 JYR8:JYS10 JOV8:JOW10 JEZ8:JFA10 IVD8:IVE10 ILH8:ILI10 IBL8:IBM10 HRP8:HRQ10 HHT8:HHU10 GXX8:GXY10 GOB8:GOC10 GEF8:GEG10 FUJ8:FUK10 FKN8:FKO10 FAR8:FAS10 EQV8:EQW10 EGZ8:EHA10 DXD8:DXE10 DNH8:DNI10 DDL8:DDM10 CTP8:CTQ10 CJT8:CJU10 BZX8:BZY10 BQB8:BQC10 BGF8:BGG10 AWJ8:AWK10 AMN8:AMO10 ACR8:ACS10 SV8:SW10 IZ8:JA10" xr:uid="{3C527FFC-5B4C-499D-AB6F-CEB06DC31A1C}">
       <formula1>"Orthogonal, Multidirectional, Centripetal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 IV10 SR10 ACN10 AMJ10 AWF10 BGB10 BPX10 BZT10 CJP10 CTL10 DDH10 DND10 DWZ10 EGV10 EQR10 FAN10 FKJ10 FUF10 GEB10 GNX10 GXT10 HHP10 HRL10 IBH10 ILD10 IUZ10 JEV10 JOR10 JYN10 KIJ10 KSF10 LCB10 LLX10 LVT10 MFP10 MPL10 MZH10 NJD10 NSZ10 OCV10 OMR10 OWN10 PGJ10 PQF10 QAB10 QJX10 QTT10 RDP10 RNL10 RXH10 SHD10 SQZ10 TAV10 TKR10 TUN10 UEJ10 UOF10 UYB10 VHX10 VRT10 WBP10 WLL10 WVH10 WLL12:WLL16 WLL4:WLL8 WBP12:WBP16 WBP4:WBP8 VRT12:VRT16 VRT4:VRT8 VHX12:VHX16 VHX4:VHX8 UYB12:UYB16 UYB4:UYB8 UOF12:UOF16 UOF4:UOF8 UEJ12:UEJ16 UEJ4:UEJ8 TUN12:TUN16 TUN4:TUN8 TKR12:TKR16 TKR4:TKR8 TAV12:TAV16 TAV4:TAV8 SQZ12:SQZ16 SQZ4:SQZ8 SHD12:SHD16 SHD4:SHD8 RXH12:RXH16 RXH4:RXH8 RNL12:RNL16 RNL4:RNL8 RDP12:RDP16 RDP4:RDP8 QTT12:QTT16 QTT4:QTT8 QJX12:QJX16 QJX4:QJX8 QAB12:QAB16 QAB4:QAB8 PQF12:PQF16 PQF4:PQF8 PGJ12:PGJ16 PGJ4:PGJ8 OWN12:OWN16 OWN4:OWN8 OMR12:OMR16 OMR4:OMR8 OCV12:OCV16 OCV4:OCV8 NSZ12:NSZ16 NSZ4:NSZ8 NJD12:NJD16 NJD4:NJD8 MZH12:MZH16 MZH4:MZH8 MPL12:MPL16 MPL4:MPL8 MFP12:MFP16 MFP4:MFP8 LVT12:LVT16 LVT4:LVT8 LLX12:LLX16 LLX4:LLX8 LCB12:LCB16 LCB4:LCB8 KSF12:KSF16 KSF4:KSF8 KIJ12:KIJ16 KIJ4:KIJ8 JYN12:JYN16 JYN4:JYN8 JOR12:JOR16 JOR4:JOR8 JEV12:JEV16 JEV4:JEV8 IUZ12:IUZ16 IUZ4:IUZ8 ILD12:ILD16 ILD4:ILD8 IBH12:IBH16 IBH4:IBH8 HRL12:HRL16 HRL4:HRL8 HHP12:HHP16 HHP4:HHP8 GXT12:GXT16 GXT4:GXT8 GNX12:GNX16 GNX4:GNX8 GEB12:GEB16 GEB4:GEB8 FUF12:FUF16 FUF4:FUF8 FKJ12:FKJ16 FKJ4:FKJ8 FAN12:FAN16 FAN4:FAN8 EQR12:EQR16 EQR4:EQR8 EGV12:EGV16 EGV4:EGV8 DWZ12:DWZ16 DWZ4:DWZ8 DND12:DND16 DND4:DND8 DDH12:DDH16 DDH4:DDH8 CTL12:CTL16 CTL4:CTL8 CJP12:CJP16 CJP4:CJP8 BZT12:BZT16 BZT4:BZT8 BPX12:BPX16 BPX4:BPX8 BGB12:BGB16 BGB4:BGB8 AWF12:AWF16 AWF4:AWF8 AMJ12:AMJ16 AMJ4:AMJ8 ACN12:ACN16 ACN4:ACN8 SR12:SR16 SR4:SR8 IV12:IV16 IV4:IV8 B12:B16 B4:B8 WVH12:WVH16 WVH4:WVH8" xr:uid="{EA9D2ED6-298C-4C96-A8B6-B71AE1ECB038}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 IV10 SR10 ACN10 AMJ10 AWF10 BGB10 BPX10 BZT10 CJP10 CTL10 DDH10 DND10 DWZ10 EGV10 EQR10 FAN10 FKJ10 FUF10 GEB10 GNX10 GXT10 HHP10 HRL10 IBH10 ILD10 IUZ10 JEV10 JOR10 JYN10 KIJ10 KSF10 LCB10 LLX10 LVT10 MFP10 MPL10 MZH10 NJD10 NSZ10 OCV10 OMR10 OWN10 PGJ10 PQF10 QAB10 QJX10 QTT10 RDP10 RNL10 RXH10 SHD10 SQZ10 TAV10 TKR10 TUN10 UEJ10 UOF10 UYB10 VHX10 VRT10 WBP10 WLL10 WVH10 WLL12:WLL16 WLL5:WLL8 WBP12:WBP16 WBP5:WBP8 VRT12:VRT16 VRT5:VRT8 VHX12:VHX16 VHX5:VHX8 UYB12:UYB16 UYB5:UYB8 UOF12:UOF16 UOF5:UOF8 UEJ12:UEJ16 UEJ5:UEJ8 TUN12:TUN16 TUN5:TUN8 TKR12:TKR16 TKR5:TKR8 TAV12:TAV16 TAV5:TAV8 SQZ12:SQZ16 SQZ5:SQZ8 SHD12:SHD16 SHD5:SHD8 RXH12:RXH16 RXH5:RXH8 RNL12:RNL16 RNL5:RNL8 RDP12:RDP16 RDP5:RDP8 QTT12:QTT16 QTT5:QTT8 QJX12:QJX16 QJX5:QJX8 QAB12:QAB16 QAB5:QAB8 PQF12:PQF16 PQF5:PQF8 PGJ12:PGJ16 PGJ5:PGJ8 OWN12:OWN16 OWN5:OWN8 OMR12:OMR16 OMR5:OMR8 OCV12:OCV16 OCV5:OCV8 NSZ12:NSZ16 NSZ5:NSZ8 NJD12:NJD16 NJD5:NJD8 MZH12:MZH16 MZH5:MZH8 MPL12:MPL16 MPL5:MPL8 MFP12:MFP16 MFP5:MFP8 LVT12:LVT16 LVT5:LVT8 LLX12:LLX16 LLX5:LLX8 LCB12:LCB16 LCB5:LCB8 KSF12:KSF16 KSF5:KSF8 KIJ12:KIJ16 KIJ5:KIJ8 JYN12:JYN16 JYN5:JYN8 JOR12:JOR16 JOR5:JOR8 JEV12:JEV16 JEV5:JEV8 IUZ12:IUZ16 IUZ5:IUZ8 ILD12:ILD16 ILD5:ILD8 IBH12:IBH16 IBH5:IBH8 HRL12:HRL16 HRL5:HRL8 HHP12:HHP16 HHP5:HHP8 GXT12:GXT16 GXT5:GXT8 GNX12:GNX16 GNX5:GNX8 GEB12:GEB16 GEB5:GEB8 FUF12:FUF16 FUF5:FUF8 FKJ12:FKJ16 FKJ5:FKJ8 FAN12:FAN16 FAN5:FAN8 EQR12:EQR16 EQR5:EQR8 EGV12:EGV16 EGV5:EGV8 DWZ12:DWZ16 DWZ5:DWZ8 DND12:DND16 DND5:DND8 DDH12:DDH16 DDH5:DDH8 CTL12:CTL16 CTL5:CTL8 CJP12:CJP16 CJP5:CJP8 BZT12:BZT16 BZT5:BZT8 BPX12:BPX16 BPX5:BPX8 BGB12:BGB16 BGB5:BGB8 AWF12:AWF16 AWF5:AWF8 AMJ12:AMJ16 AMJ5:AMJ8 ACN12:ACN16 ACN5:ACN8 SR12:SR16 SR5:SR8 IV12:IV16 IV5:IV8 B12:B16 B4:B8 WVH12:WVH16 WVH5:WVH8" xr:uid="{EA9D2ED6-298C-4C96-A8B6-B71AE1ECB038}">
       <formula1>"Cobble, Nodule, NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WLM12:WLM16 WLM4:WLM10 WBQ12:WBQ16 WBQ4:WBQ10 VRU12:VRU16 VRU4:VRU10 VHY12:VHY16 VHY4:VHY10 UYC12:UYC16 UYC4:UYC10 UOG12:UOG16 UOG4:UOG10 UEK12:UEK16 UEK4:UEK10 TUO12:TUO16 TUO4:TUO10 TKS12:TKS16 TKS4:TKS10 TAW12:TAW16 TAW4:TAW10 SRA12:SRA16 SRA4:SRA10 SHE12:SHE16 SHE4:SHE10 RXI12:RXI16 RXI4:RXI10 RNM12:RNM16 RNM4:RNM10 RDQ12:RDQ16 RDQ4:RDQ10 QTU12:QTU16 QTU4:QTU10 QJY12:QJY16 QJY4:QJY10 QAC12:QAC16 QAC4:QAC10 PQG12:PQG16 PQG4:PQG10 PGK12:PGK16 PGK4:PGK10 OWO12:OWO16 OWO4:OWO10 OMS12:OMS16 OMS4:OMS10 OCW12:OCW16 OCW4:OCW10 NTA12:NTA16 NTA4:NTA10 NJE12:NJE16 NJE4:NJE10 MZI12:MZI16 MZI4:MZI10 MPM12:MPM16 MPM4:MPM10 MFQ12:MFQ16 MFQ4:MFQ10 LVU12:LVU16 LVU4:LVU10 LLY12:LLY16 LLY4:LLY10 LCC12:LCC16 LCC4:LCC10 KSG12:KSG16 KSG4:KSG10 KIK12:KIK16 KIK4:KIK10 JYO12:JYO16 JYO4:JYO10 JOS12:JOS16 JOS4:JOS10 JEW12:JEW16 JEW4:JEW10 IVA12:IVA16 IVA4:IVA10 ILE12:ILE16 ILE4:ILE10 IBI12:IBI16 IBI4:IBI10 HRM12:HRM16 HRM4:HRM10 HHQ12:HHQ16 HHQ4:HHQ10 GXU12:GXU16 GXU4:GXU10 GNY12:GNY16 GNY4:GNY10 GEC12:GEC16 GEC4:GEC10 FUG12:FUG16 FUG4:FUG10 FKK12:FKK16 FKK4:FKK10 FAO12:FAO16 FAO4:FAO10 EQS12:EQS16 EQS4:EQS10 EGW12:EGW16 EGW4:EGW10 DXA12:DXA16 DXA4:DXA10 DNE12:DNE16 DNE4:DNE10 DDI12:DDI16 DDI4:DDI10 CTM12:CTM16 CTM4:CTM10 CJQ12:CJQ16 CJQ4:CJQ10 BZU12:BZU16 BZU4:BZU10 BPY12:BPY16 BPY4:BPY10 BGC12:BGC16 BGC4:BGC10 AWG12:AWG16 AWG4:AWG10 AMK12:AMK16 AMK4:AMK10 ACO12:ACO16 ACO4:ACO10 SS12:SS16 SS4:SS10 IW12:IW16 IW4:IW10 C12:C16 C4:C10 WVI12:WVI16 WVI4:WVI10" xr:uid="{F6DE527F-5C5E-425A-858F-9CA3FC496285}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WLM12:WLM16 WBQ12:WBQ16 VRU12:VRU16 VHY12:VHY16 UYC12:UYC16 UOG12:UOG16 UEK12:UEK16 TUO12:TUO16 TKS12:TKS16 TAW12:TAW16 SRA12:SRA16 SHE12:SHE16 RXI12:RXI16 RNM12:RNM16 RDQ12:RDQ16 QTU12:QTU16 QJY12:QJY16 QAC12:QAC16 PQG12:PQG16 PGK12:PGK16 OWO12:OWO16 OMS12:OMS16 OCW12:OCW16 NTA12:NTA16 NJE12:NJE16 MZI12:MZI16 MPM12:MPM16 MFQ12:MFQ16 LVU12:LVU16 LLY12:LLY16 LCC12:LCC16 KSG12:KSG16 KIK12:KIK16 JYO12:JYO16 JOS12:JOS16 JEW12:JEW16 IVA12:IVA16 ILE12:ILE16 IBI12:IBI16 HRM12:HRM16 HHQ12:HHQ16 GXU12:GXU16 GNY12:GNY16 GEC12:GEC16 FUG12:FUG16 FKK12:FKK16 FAO12:FAO16 EQS12:EQS16 EGW12:EGW16 DXA12:DXA16 DNE12:DNE16 DDI12:DDI16 CTM12:CTM16 CJQ12:CJQ16 BZU12:BZU16 BPY12:BPY16 BGC12:BGC16 AWG12:AWG16 AMK12:AMK16 ACO12:ACO16 SS12:SS16 IW12:IW16 C12:C16 WVI12:WVI16 WVI5:WVI10 C4:C10 IW5:IW10 SS5:SS10 ACO5:ACO10 AMK5:AMK10 AWG5:AWG10 BGC5:BGC10 BPY5:BPY10 BZU5:BZU10 CJQ5:CJQ10 CTM5:CTM10 DDI5:DDI10 DNE5:DNE10 DXA5:DXA10 EGW5:EGW10 EQS5:EQS10 FAO5:FAO10 FKK5:FKK10 FUG5:FUG10 GEC5:GEC10 GNY5:GNY10 GXU5:GXU10 HHQ5:HHQ10 HRM5:HRM10 IBI5:IBI10 ILE5:ILE10 IVA5:IVA10 JEW5:JEW10 JOS5:JOS10 JYO5:JYO10 KIK5:KIK10 KSG5:KSG10 LCC5:LCC10 LLY5:LLY10 LVU5:LVU10 MFQ5:MFQ10 MPM5:MPM10 MZI5:MZI10 NJE5:NJE10 NTA5:NTA10 OCW5:OCW10 OMS5:OMS10 OWO5:OWO10 PGK5:PGK10 PQG5:PQG10 QAC5:QAC10 QJY5:QJY10 QTU5:QTU10 RDQ5:RDQ10 RNM5:RNM10 RXI5:RXI10 SHE5:SHE10 SRA5:SRA10 TAW5:TAW10 TKS5:TKS10 TUO5:TUO10 UEK5:UEK10 UOG5:UOG10 UYC5:UYC10 VHY5:VHY10 VRU5:VRU10 WBQ5:WBQ10 WLM5:WLM10" xr:uid="{F6DE527F-5C5E-425A-858F-9CA3FC496285}">
       <formula1>"Pyramidal, Cubical, Rounded, NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVL14 IZ14 SV14 ACR14 AMN14 AWJ14 BGF14 BQB14 BZX14 CJT14 CTP14 DDL14 DNH14 DXD14 EGZ14 EQV14 FAR14 FKN14 FUJ14 GEF14 GOB14 GXX14 HHT14 HRP14 IBL14 ILH14 IVD14 JEZ14 JOV14 JYR14 KIN14 KSJ14 LCF14 LMB14 LVX14 MFT14 MPP14 MZL14 NJH14 NTD14 OCZ14 OMV14 OWR14 PGN14 PQJ14 QAF14 QKB14 QTX14 RDT14 RNP14 RXL14 SHH14 SRD14 TAZ14 TKV14 TUR14 UEN14 UOJ14 UYF14 VIB14 VRX14 WBT14 WLP14 E8 IZ4 SV4 ACR4 AMN4 AWJ4 BGF4 BQB4 BZX4 CJT4 CTP4 DDL4 DNH4 DXD4 EGZ4 EQV4 FAR4 FKN4 FUJ4 GEF4 GOB4 GXX4 HHT4 HRP4 IBL4 ILH4 IVD4 JEZ4 JOV4 JYR4 KIN4 KSJ4 LCF4 LMB4 LVX4 MFT4 MPP4 MZL4 NJH4 NTD4 OCZ4 OMV4 OWR4 PGN4 PQJ4 QAF4 QKB4 QTX4 RDT4 RNP4 RXL4 SHH4 SRD4 TAZ4 TKV4 TUR4 UEN4 UOJ4 UYF4 VIB4 VRX4 WBT4 WLP4 WVL4 WVL8 IZ8 SV8 ACR8 AMN8 AWJ8 BGF8 BQB8 BZX8 CJT8 CTP8 DDL8 DNH8 DXD8 EGZ8 EQV8 FAR8 FKN8 FUJ8 GEF8 GOB8 GXX8 HHT8 HRP8 IBL8 ILH8 IVD8 JEZ8 JOV8 JYR8 KIN8 KSJ8 LCF8 LMB8 LVX8 MFT8 MPP8 MZL8 NJH8 NTD8 OCZ8 OMV8 OWR8 PGN8 PQJ8 QAF8 QKB8 QTX8 RDT8 RNP8 RXL8 SHH8 SRD8 TAZ8 TKV8 TUR8 UEN8 UOJ8 UYF8 VIB8 VRX8 WBT8 WLP8 E4" xr:uid="{B0ECA4E0-3D9A-4C76-AE44-0D8BE172C94A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVL14 IZ14 SV14 ACR14 AMN14 AWJ14 BGF14 BQB14 BZX14 CJT14 CTP14 DDL14 DNH14 DXD14 EGZ14 EQV14 FAR14 FKN14 FUJ14 GEF14 GOB14 GXX14 HHT14 HRP14 IBL14 ILH14 IVD14 JEZ14 JOV14 JYR14 KIN14 KSJ14 LCF14 LMB14 LVX14 MFT14 MPP14 MZL14 NJH14 NTD14 OCZ14 OMV14 OWR14 PGN14 PQJ14 QAF14 QKB14 QTX14 RDT14 RNP14 RXL14 SHH14 SRD14 TAZ14 TKV14 TUR14 UEN14 UOJ14 UYF14 VIB14 VRX14 WBT14 WLP14 IZ5 SV5 ACR5 AMN5 AWJ5 BGF5 BQB5 BZX5 CJT5 CTP5 DDL5 DNH5 DXD5 EGZ5 EQV5 FAR5 FKN5 FUJ5 GEF5 GOB5 GXX5 HHT5 HRP5 IBL5 ILH5 IVD5 JEZ5 JOV5 JYR5 KIN5 KSJ5 LCF5 LMB5 LVX5 MFT5 MPP5 MZL5 NJH5 NTD5 OCZ5 OMV5 OWR5 PGN5 PQJ5 QAF5 QKB5 QTX5 RDT5 RNP5 RXL5 SHH5 SRD5 TAZ5 TKV5 TUR5 UEN5 UOJ5 UYF5 VIB5 VRX5 WBT5 WLP5 WVL5 E4:E5" xr:uid="{B0ECA4E0-3D9A-4C76-AE44-0D8BE172C94A}">
       <formula1>"Orthogonal, Multidirectional, Centripetal, BHC, UABI"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JE4:JE5 K4:K5 WVQ9:WVQ16 WVQ4:WVQ5 WLU9:WLU16 WLU4:WLU5 WBY9:WBY16 WBY4:WBY5 VSC9:VSC16 VSC4:VSC5 VIG9:VIG16 VIG4:VIG5 UYK9:UYK16 UYK4:UYK5 UOO9:UOO16 UOO4:UOO5 UES9:UES16 UES4:UES5 TUW9:TUW16 TUW4:TUW5 TLA9:TLA16 TLA4:TLA5 TBE9:TBE16 TBE4:TBE5 SRI9:SRI16 SRI4:SRI5 SHM9:SHM16 SHM4:SHM5 RXQ9:RXQ16 RXQ4:RXQ5 RNU9:RNU16 RNU4:RNU5 RDY9:RDY16 RDY4:RDY5 QUC9:QUC16 QUC4:QUC5 QKG9:QKG16 QKG4:QKG5 QAK9:QAK16 QAK4:QAK5 PQO9:PQO16 PQO4:PQO5 PGS9:PGS16 PGS4:PGS5 OWW9:OWW16 OWW4:OWW5 ONA9:ONA16 ONA4:ONA5 ODE9:ODE16 ODE4:ODE5 NTI9:NTI16 NTI4:NTI5 NJM9:NJM16 NJM4:NJM5 MZQ9:MZQ16 MZQ4:MZQ5 MPU9:MPU16 MPU4:MPU5 MFY9:MFY16 MFY4:MFY5 LWC9:LWC16 LWC4:LWC5 LMG9:LMG16 LMG4:LMG5 LCK9:LCK16 LCK4:LCK5 KSO9:KSO16 KSO4:KSO5 KIS9:KIS16 KIS4:KIS5 JYW9:JYW16 JYW4:JYW5 JPA9:JPA16 JPA4:JPA5 JFE9:JFE16 JFE4:JFE5 IVI9:IVI16 IVI4:IVI5 ILM9:ILM16 ILM4:ILM5 IBQ9:IBQ16 IBQ4:IBQ5 HRU9:HRU16 HRU4:HRU5 HHY9:HHY16 HHY4:HHY5 GYC9:GYC16 GYC4:GYC5 GOG9:GOG16 GOG4:GOG5 GEK9:GEK16 GEK4:GEK5 FUO9:FUO16 FUO4:FUO5 FKS9:FKS16 FKS4:FKS5 FAW9:FAW16 FAW4:FAW5 ERA9:ERA16 ERA4:ERA5 EHE9:EHE16 EHE4:EHE5 DXI9:DXI16 DXI4:DXI5 DNM9:DNM16 DNM4:DNM5 DDQ9:DDQ16 DDQ4:DDQ5 CTU9:CTU16 CTU4:CTU5 CJY9:CJY16 CJY4:CJY5 CAC9:CAC16 CAC4:CAC5 BQG9:BQG16 BQG4:BQG5 BGK9:BGK16 BGK4:BGK5 AWO9:AWO16 AWO4:AWO5 AMS9:AMS16 AMS4:AMS5 ACW9:ACW16 ACW4:ACW5 TA9:TA16 TA4:TA5 JE9:JE16 K9:K16" xr:uid="{2D663550-B276-45EF-B092-1D185555E664}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JE5:JE6 K5:K6 WVQ9:WVQ16 WVQ5:WVQ6 WLU9:WLU16 WLU5:WLU6 WBY9:WBY16 WBY5:WBY6 VSC9:VSC16 VSC5:VSC6 VIG9:VIG16 VIG5:VIG6 UYK9:UYK16 UYK5:UYK6 UOO9:UOO16 UOO5:UOO6 UES9:UES16 UES5:UES6 TUW9:TUW16 TUW5:TUW6 TLA9:TLA16 TLA5:TLA6 TBE9:TBE16 TBE5:TBE6 SRI9:SRI16 SRI5:SRI6 SHM9:SHM16 SHM5:SHM6 RXQ9:RXQ16 RXQ5:RXQ6 RNU9:RNU16 RNU5:RNU6 RDY9:RDY16 RDY5:RDY6 QUC9:QUC16 QUC5:QUC6 QKG9:QKG16 QKG5:QKG6 QAK9:QAK16 QAK5:QAK6 PQO9:PQO16 PQO5:PQO6 PGS9:PGS16 PGS5:PGS6 OWW9:OWW16 OWW5:OWW6 ONA9:ONA16 ONA5:ONA6 ODE9:ODE16 ODE5:ODE6 NTI9:NTI16 NTI5:NTI6 NJM9:NJM16 NJM5:NJM6 MZQ9:MZQ16 MZQ5:MZQ6 MPU9:MPU16 MPU5:MPU6 MFY9:MFY16 MFY5:MFY6 LWC9:LWC16 LWC5:LWC6 LMG9:LMG16 LMG5:LMG6 LCK9:LCK16 LCK5:LCK6 KSO9:KSO16 KSO5:KSO6 KIS9:KIS16 KIS5:KIS6 JYW9:JYW16 JYW5:JYW6 JPA9:JPA16 JPA5:JPA6 JFE9:JFE16 JFE5:JFE6 IVI9:IVI16 IVI5:IVI6 ILM9:ILM16 ILM5:ILM6 IBQ9:IBQ16 IBQ5:IBQ6 HRU9:HRU16 HRU5:HRU6 HHY9:HHY16 HHY5:HHY6 GYC9:GYC16 GYC5:GYC6 GOG9:GOG16 GOG5:GOG6 GEK9:GEK16 GEK5:GEK6 FUO9:FUO16 FUO5:FUO6 FKS9:FKS16 FKS5:FKS6 FAW9:FAW16 FAW5:FAW6 ERA9:ERA16 ERA5:ERA6 EHE9:EHE16 EHE5:EHE6 DXI9:DXI16 DXI5:DXI6 DNM9:DNM16 DNM5:DNM6 DDQ9:DDQ16 DDQ5:DDQ6 CTU9:CTU16 CTU5:CTU6 CJY9:CJY16 CJY5:CJY6 CAC9:CAC16 CAC5:CAC6 BQG9:BQG16 BQG5:BQG6 BGK9:BGK16 BGK5:BGK6 AWO9:AWO16 AWO5:AWO6 AMS9:AMS16 AMS5:AMS6 ACW9:ACW16 ACW5:ACW6 TA9:TA16 TA5:TA6 JE9:JE16 K9:K16" xr:uid="{2D663550-B276-45EF-B092-1D185555E664}">
       <formula1>"Cortical, Removal, Cortical&amp;Removal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVL11 IZ11 SV11 ACR11 AMN11 AWJ11 BGF11 BQB11 BZX11 CJT11 CTP11 DDL11 DNH11 DXD11 EGZ11 EQV11 FAR11 FKN11 FUJ11 GEF11 GOB11 GXX11 HHT11 HRP11 IBL11 ILH11 IVD11 JEZ11 JOV11 JYR11 KIN11 KSJ11 LCF11 LMB11 LVX11 MFT11 MPP11 MZL11 NJH11 NTD11 OCZ11 OMV11 OWR11 PGN11 PQJ11 QAF11 QKB11 QTX11 RDT11 RNP11 RXL11 SHH11 SRD11 TAZ11 TKV11 TUR11 UEN11 UOJ11 UYF11 VIB11 VRX11 WBT11 WLP11" xr:uid="{9C86724E-0ED2-40B3-AA7E-AE02C1BBB1D7}">
       <formula1>"Orthogonal, Multidirectional, Centripetal, BHC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B11 IV7:IV11 SR7:SR11 ACN7:ACN11 AMJ7:AMJ11 AWF7:AWF11 BGB7:BGB11 BPX7:BPX11 BZT7:BZT11 CJP7:CJP11 CTL7:CTL11 DDH7:DDH11 DND7:DND11 DWZ7:DWZ11 EGV7:EGV11 EQR7:EQR11 FAN7:FAN11 FKJ7:FKJ11 FUF7:FUF11 GEB7:GEB11 GNX7:GNX11 GXT7:GXT11 HHP7:HHP11 HRL7:HRL11 IBH7:IBH11 ILD7:ILD11 IUZ7:IUZ11 JEV7:JEV11 JOR7:JOR11 JYN7:JYN11 KIJ7:KIJ11 KSF7:KSF11 LCB7:LCB11 LLX7:LLX11 LVT7:LVT11 MFP7:MFP11 MPL7:MPL11 MZH7:MZH11 NJD7:NJD11 NSZ7:NSZ11 OCV7:OCV11 OMR7:OMR11 OWN7:OWN11 PGJ7:PGJ11 PQF7:PQF11 QAB7:QAB11 QJX7:QJX11 QTT7:QTT11 RDP7:RDP11 RNL7:RNL11 RXH7:RXH11 SHD7:SHD11 SQZ7:SQZ11 TAV7:TAV11 TKR7:TKR11 TUN7:TUN11 UEJ7:UEJ11 UOF7:UOF11 UYB7:UYB11 VHX7:VHX11 VRT7:VRT11 WBP7:WBP11 WLL7:WLL11 WVH7:WVH11" xr:uid="{C6E0F335-389C-493E-BE60-2F1E96D2888E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L11 L9 L15 WLV8:WLW9 WBZ8:WCA9 VSD8:VSE9 VIH8:VII9 UYL8:UYM9 UOP8:UOQ9 UET8:UEU9 TUX8:TUY9 TLB8:TLC9 TBF8:TBG9 SRJ8:SRK9 SHN8:SHO9 RXR8:RXS9 RNV8:RNW9 RDZ8:REA9 QUD8:QUE9 QKH8:QKI9 QAL8:QAM9 PQP8:PQQ9 PGT8:PGU9 OWX8:OWY9 ONB8:ONC9 ODF8:ODG9 NTJ8:NTK9 NJN8:NJO9 MZR8:MZS9 MPV8:MPW9 MFZ8:MGA9 LWD8:LWE9 LMH8:LMI9 LCL8:LCM9 KSP8:KSQ9 KIT8:KIU9 JYX8:JYY9 JPB8:JPC9 JFF8:JFG9 IVJ8:IVK9 ILN8:ILO9 IBR8:IBS9 HRV8:HRW9 HHZ8:HIA9 GYD8:GYE9 GOH8:GOI9 GEL8:GEM9 FUP8:FUQ9 FKT8:FKU9 FAX8:FAY9 ERB8:ERC9 EHF8:EHG9 DXJ8:DXK9 DNN8:DNO9 DDR8:DDS9 CTV8:CTW9 CJZ8:CKA9 CAD8:CAE9 BQH8:BQI9 BGL8:BGM9 AWP8:AWQ9 AMT8:AMU9 ACX8:ACY9 TB8:TC9 JF8:JG9 WVR8:WVS9" xr:uid="{13BBD2D2-865A-4D4C-BFA2-DE3D32C0E748}">
+      <formula1>"Rough out, orthogonal flakes, small flakes"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N10:N12 N7 JJ5:JJ16 TF5:TF16 ADB5:ADB16 AMX5:AMX16 AWT5:AWT16 BGP5:BGP16 BQL5:BQL16 CAH5:CAH16 CKD5:CKD16 CTZ5:CTZ16 DDV5:DDV16 DNR5:DNR16 DXN5:DXN16 EHJ5:EHJ16 ERF5:ERF16 FBB5:FBB16 FKX5:FKX16 FUT5:FUT16 GEP5:GEP16 GOL5:GOL16 GYH5:GYH16 HID5:HID16 HRZ5:HRZ16 IBV5:IBV16 ILR5:ILR16 IVN5:IVN16 JFJ5:JFJ16 JPF5:JPF16 JZB5:JZB16 KIX5:KIX16 KST5:KST16 LCP5:LCP16 LML5:LML16 LWH5:LWH16 MGD5:MGD16 MPZ5:MPZ16 MZV5:MZV16 NJR5:NJR16 NTN5:NTN16 ODJ5:ODJ16 ONF5:ONF16 OXB5:OXB16 PGX5:PGX16 PQT5:PQT16 QAP5:QAP16 QKL5:QKL16 QUH5:QUH16 RED5:RED16 RNZ5:RNZ16 RXV5:RXV16 SHR5:SHR16 SRN5:SRN16 TBJ5:TBJ16 TLF5:TLF16 TVB5:TVB16 UEX5:UEX16 UOT5:UOT16 UYP5:UYP16 VIL5:VIL16 VSH5:VSH16 WCD5:WCD16 WLZ5:WLZ16 WVV5:WVV16 N4" xr:uid="{E83987C1-2067-4D1F-AC25-FCFFDD47EF41}">
+      <formula1>"无, 零星, 大面积连续, 小面积连续, 两极, 中部环状"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVH8:WVH11 WLL8:WLL11 WBP8:WBP11 VRT8:VRT11 VHX8:VHX11 UYB8:UYB11 UOF8:UOF11 UEJ8:UEJ11 TUN8:TUN11 TKR8:TKR11 TAV8:TAV11 SQZ8:SQZ11 SHD8:SHD11 RXH8:RXH11 RNL8:RNL11 RDP8:RDP11 QTT8:QTT11 QJX8:QJX11 QAB8:QAB11 PQF8:PQF11 PGJ8:PGJ11 OWN8:OWN11 OMR8:OMR11 OCV8:OCV11 NSZ8:NSZ11 NJD8:NJD11 MZH8:MZH11 MPL8:MPL11 MFP8:MFP11 LVT8:LVT11 LLX8:LLX11 LCB8:LCB11 KSF8:KSF11 KIJ8:KIJ11 JYN8:JYN11 JOR8:JOR11 JEV8:JEV11 IUZ8:IUZ11 ILD8:ILD11 IBH8:IBH11 HRL8:HRL11 HHP8:HHP11 GXT8:GXT11 GNX8:GNX11 GEB8:GEB11 FUF8:FUF11 FKJ8:FKJ11 FAN8:FAN11 EQR8:EQR11 EGV8:EGV11 DWZ8:DWZ11 DND8:DND11 DDH8:DDH11 CTL8:CTL11 CJP8:CJP11 BZT8:BZT11 BPX8:BPX11 BGB8:BGB11 AWF8:AWF11 AMJ8:AMJ11 ACN8:ACN11 SR8:SR11 IV8:IV11 B8:B11 B4" xr:uid="{C6E0F335-389C-493E-BE60-2F1E96D2888E}">
       <formula1>"Cobble, Nodule"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C11 IW7:IW11 SS7:SS11 ACO7:ACO11 AMK7:AMK11 AWG7:AWG11 BGC7:BGC11 BPY7:BPY11 BZU7:BZU11 CJQ7:CJQ11 CTM7:CTM11 DDI7:DDI11 DNE7:DNE11 DXA7:DXA11 EGW7:EGW11 EQS7:EQS11 FAO7:FAO11 FKK7:FKK11 FUG7:FUG11 GEC7:GEC11 GNY7:GNY11 GXU7:GXU11 HHQ7:HHQ11 HRM7:HRM11 IBI7:IBI11 ILE7:ILE11 IVA7:IVA11 JEW7:JEW11 JOS7:JOS11 JYO7:JYO11 KIK7:KIK11 KSG7:KSG11 LCC7:LCC11 LLY7:LLY11 LVU7:LVU11 MFQ7:MFQ11 MPM7:MPM11 MZI7:MZI11 NJE7:NJE11 NTA7:NTA11 OCW7:OCW11 OMS7:OMS11 OWO7:OWO11 PGK7:PGK11 PQG7:PQG11 QAC7:QAC11 QJY7:QJY11 QTU7:QTU11 RDQ7:RDQ11 RNM7:RNM11 RXI7:RXI11 SHE7:SHE11 SRA7:SRA11 TAW7:TAW11 TKS7:TKS11 TUO7:TUO11 UEK7:UEK11 UOG7:UOG11 UYC7:UYC11 VHY7:VHY11 VRU7:VRU11 WBQ7:WBQ11 WLM7:WLM11 WVI7:WVI11" xr:uid="{DB79AD99-7302-4ABB-AF7E-FF63D3D334C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVI8:WVI11 WLM8:WLM11 WBQ8:WBQ11 VRU8:VRU11 VHY8:VHY11 UYC8:UYC11 UOG8:UOG11 UEK8:UEK11 TUO8:TUO11 TKS8:TKS11 TAW8:TAW11 SRA8:SRA11 SHE8:SHE11 RXI8:RXI11 RNM8:RNM11 RDQ8:RDQ11 QTU8:QTU11 QJY8:QJY11 QAC8:QAC11 PQG8:PQG11 PGK8:PGK11 OWO8:OWO11 OMS8:OMS11 OCW8:OCW11 NTA8:NTA11 NJE8:NJE11 MZI8:MZI11 MPM8:MPM11 MFQ8:MFQ11 LVU8:LVU11 LLY8:LLY11 LCC8:LCC11 KSG8:KSG11 KIK8:KIK11 JYO8:JYO11 JOS8:JOS11 JEW8:JEW11 IVA8:IVA11 ILE8:ILE11 IBI8:IBI11 HRM8:HRM11 HHQ8:HHQ11 GXU8:GXU11 GNY8:GNY11 GEC8:GEC11 FUG8:FUG11 FKK8:FKK11 FAO8:FAO11 EQS8:EQS11 EGW8:EGW11 DXA8:DXA11 DNE8:DNE11 DDI8:DDI11 CTM8:CTM11 CJQ8:CJQ11 BZU8:BZU11 BPY8:BPY11 BGC8:BGC11 AWG8:AWG11 AMK8:AMK11 ACO8:ACO11 SS8:SS11 IW8:IW11 C8:C11" xr:uid="{DB79AD99-7302-4ABB-AF7E-FF63D3D334C2}">
       <formula1>"Pyramidal, Cubical, Rounded"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K10 JE7:JE10 TA7:TA10 ACW7:ACW10 AMS7:AMS10 AWO7:AWO10 BGK7:BGK10 BQG7:BQG10 CAC7:CAC10 CJY7:CJY10 CTU7:CTU10 DDQ7:DDQ10 DNM7:DNM10 DXI7:DXI10 EHE7:EHE10 ERA7:ERA10 FAW7:FAW10 FKS7:FKS10 FUO7:FUO10 GEK7:GEK10 GOG7:GOG10 GYC7:GYC10 HHY7:HHY10 HRU7:HRU10 IBQ7:IBQ10 ILM7:ILM10 IVI7:IVI10 JFE7:JFE10 JPA7:JPA10 JYW7:JYW10 KIS7:KIS10 KSO7:KSO10 LCK7:LCK10 LMG7:LMG10 LWC7:LWC10 MFY7:MFY10 MPU7:MPU10 MZQ7:MZQ10 NJM7:NJM10 NTI7:NTI10 ODE7:ODE10 ONA7:ONA10 OWW7:OWW10 PGS7:PGS10 PQO7:PQO10 QAK7:QAK10 QKG7:QKG10 QUC7:QUC10 RDY7:RDY10 RNU7:RNU10 RXQ7:RXQ10 SHM7:SHM10 SRI7:SRI10 TBE7:TBE10 TLA7:TLA10 TUW7:TUW10 UES7:UES10 UOO7:UOO10 UYK7:UYK10 VIG7:VIG10 VSC7:VSC10 WBY7:WBY10 WLU7:WLU10 WVQ7:WVQ10" xr:uid="{AA14BF0F-F522-47F6-ABE8-44FA928922F3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVQ8:WVQ10 WLU8:WLU10 WBY8:WBY10 VSC8:VSC10 VIG8:VIG10 UYK8:UYK10 UOO8:UOO10 UES8:UES10 TUW8:TUW10 TLA8:TLA10 TBE8:TBE10 SRI8:SRI10 SHM8:SHM10 RXQ8:RXQ10 RNU8:RNU10 RDY8:RDY10 QUC8:QUC10 QKG8:QKG10 QAK8:QAK10 PQO8:PQO10 PGS8:PGS10 OWW8:OWW10 ONA8:ONA10 ODE8:ODE10 NTI8:NTI10 NJM8:NJM10 MZQ8:MZQ10 MPU8:MPU10 MFY8:MFY10 LWC8:LWC10 LMG8:LMG10 LCK8:LCK10 KSO8:KSO10 KIS8:KIS10 JYW8:JYW10 JPA8:JPA10 JFE8:JFE10 IVI8:IVI10 ILM8:ILM10 IBQ8:IBQ10 HRU8:HRU10 HHY8:HHY10 GYC8:GYC10 GOG8:GOG10 GEK8:GEK10 FUO8:FUO10 FKS8:FKS10 FAW8:FAW10 ERA8:ERA10 EHE8:EHE10 DXI8:DXI10 DNM8:DNM10 DDQ8:DDQ10 CTU8:CTU10 CJY8:CJY10 CAC8:CAC10 BQG8:BQG10 BGK8:BGK10 AWO8:AWO10 AMS8:AMS10 ACW8:ACW10 TA8:TA10 JE8:JE10 K8:K10" xr:uid="{AA14BF0F-F522-47F6-ABE8-44FA928922F3}">
       <formula1>"Cortical, Removal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVR7:WVS9 JF7:JG9 TB7:TC9 ACX7:ACY9 AMT7:AMU9 AWP7:AWQ9 BGL7:BGM9 BQH7:BQI9 CAD7:CAE9 CJZ7:CKA9 CTV7:CTW9 DDR7:DDS9 DNN7:DNO9 DXJ7:DXK9 EHF7:EHG9 ERB7:ERC9 FAX7:FAY9 FKT7:FKU9 FUP7:FUQ9 GEL7:GEM9 GOH7:GOI9 GYD7:GYE9 HHZ7:HIA9 HRV7:HRW9 IBR7:IBS9 ILN7:ILO9 IVJ7:IVK9 JFF7:JFG9 JPB7:JPC9 JYX7:JYY9 KIT7:KIU9 KSP7:KSQ9 LCL7:LCM9 LMH7:LMI9 LWD7:LWE9 MFZ7:MGA9 MPV7:MPW9 MZR7:MZS9 NJN7:NJO9 NTJ7:NTK9 ODF7:ODG9 ONB7:ONC9 OWX7:OWY9 PGT7:PGU9 PQP7:PQQ9 QAL7:QAM9 QKH7:QKI9 QUD7:QUE9 RDZ7:REA9 RNV7:RNW9 RXR7:RXS9 SHN7:SHO9 SRJ7:SRK9 TBF7:TBG9 TLB7:TLC9 TUX7:TUY9 UET7:UEU9 UOP7:UOQ9 UYL7:UYM9 VIH7:VII9 VSD7:VSE9 WBZ7:WCA9 WLV7:WLW9 L11 L9 L15" xr:uid="{13BBD2D2-865A-4D4C-BFA2-DE3D32C0E748}">
-      <formula1>"Rough out, orthogonal flakes, small flakes"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WLO4:WLO16 WBS4:WBS16 VRW4:VRW16 VIA4:VIA16 UYE4:UYE16 UOI4:UOI16 UEM4:UEM16 TUQ4:TUQ16 TKU4:TKU16 TAY4:TAY16 SRC4:SRC16 SHG4:SHG16 RXK4:RXK16 RNO4:RNO16 RDS4:RDS16 QTW4:QTW16 QKA4:QKA16 QAE4:QAE16 PQI4:PQI16 PGM4:PGM16 OWQ4:OWQ16 OMU4:OMU16 OCY4:OCY16 NTC4:NTC16 NJG4:NJG16 MZK4:MZK16 MPO4:MPO16 MFS4:MFS16 LVW4:LVW16 LMA4:LMA16 LCE4:LCE16 KSI4:KSI16 KIM4:KIM16 JYQ4:JYQ16 JOU4:JOU16 JEY4:JEY16 IVC4:IVC16 ILG4:ILG16 IBK4:IBK16 HRO4:HRO16 HHS4:HHS16 GXW4:GXW16 GOA4:GOA16 GEE4:GEE16 FUI4:FUI16 FKM4:FKM16 FAQ4:FAQ16 EQU4:EQU16 EGY4:EGY16 DXC4:DXC16 DNG4:DNG16 DDK4:DDK16 CTO4:CTO16 CJS4:CJS16 BZW4:BZW16 BQA4:BQA16 BGE4:BGE16 AWI4:AWI16 AMM4:AMM16 ACQ4:ACQ16 SU4:SU16 IY4:IY16 WVK4:WVK16" xr:uid="{E3595E6C-8CDC-4A11-BE97-A739F676DA5D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVK5:WVK16 IY5:IY16 SU5:SU16 ACQ5:ACQ16 AMM5:AMM16 AWI5:AWI16 BGE5:BGE16 BQA5:BQA16 BZW5:BZW16 CJS5:CJS16 CTO5:CTO16 DDK5:DDK16 DNG5:DNG16 DXC5:DXC16 EGY5:EGY16 EQU5:EQU16 FAQ5:FAQ16 FKM5:FKM16 FUI5:FUI16 GEE5:GEE16 GOA5:GOA16 GXW5:GXW16 HHS5:HHS16 HRO5:HRO16 IBK5:IBK16 ILG5:ILG16 IVC5:IVC16 JEY5:JEY16 JOU5:JOU16 JYQ5:JYQ16 KIM5:KIM16 KSI5:KSI16 LCE5:LCE16 LMA5:LMA16 LVW5:LVW16 MFS5:MFS16 MPO5:MPO16 MZK5:MZK16 NJG5:NJG16 NTC5:NTC16 OCY5:OCY16 OMU5:OMU16 OWQ5:OWQ16 PGM5:PGM16 PQI5:PQI16 QAE5:QAE16 QKA5:QKA16 QTW5:QTW16 RDS5:RDS16 RNO5:RNO16 RXK5:RXK16 SHG5:SHG16 SRC5:SRC16 TAY5:TAY16 TKU5:TKU16 TUQ5:TUQ16 UEM5:UEM16 UOI5:UOI16 UYE5:UYE16 VIA5:VIA16 VRW5:VRW16 WBS5:WBS16 WLO5:WLO16" xr:uid="{E3595E6C-8CDC-4A11-BE97-A739F676DA5D}">
       <formula1>"P, S, B"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVV4:WVV16 WLZ4:WLZ16 WCD4:WCD16 VSH4:VSH16 VIL4:VIL16 UYP4:UYP16 UOT4:UOT16 UEX4:UEX16 TVB4:TVB16 TLF4:TLF16 TBJ4:TBJ16 SRN4:SRN16 SHR4:SHR16 RXV4:RXV16 RNZ4:RNZ16 RED4:RED16 QUH4:QUH16 QKL4:QKL16 QAP4:QAP16 PQT4:PQT16 PGX4:PGX16 OXB4:OXB16 ONF4:ONF16 ODJ4:ODJ16 NTN4:NTN16 NJR4:NJR16 MZV4:MZV16 MPZ4:MPZ16 MGD4:MGD16 LWH4:LWH16 LML4:LML16 LCP4:LCP16 KST4:KST16 KIX4:KIX16 JZB4:JZB16 JPF4:JPF16 JFJ4:JFJ16 IVN4:IVN16 ILR4:ILR16 IBV4:IBV16 HRZ4:HRZ16 HID4:HID16 GYH4:GYH16 GOL4:GOL16 GEP4:GEP16 FUT4:FUT16 FKX4:FKX16 FBB4:FBB16 ERF4:ERF16 EHJ4:EHJ16 DXN4:DXN16 DNR4:DNR16 DDV4:DDV16 CTZ4:CTZ16 CKD4:CKD16 CAH4:CAH16 BQL4:BQL16 BGP4:BGP16 AWT4:AWT16 AMX4:AMX16 ADB4:ADB16 TF4:TF16 JJ4:JJ16 N10:N12 N6" xr:uid="{E83987C1-2067-4D1F-AC25-FCFFDD47EF41}">
-      <formula1>"无, 零星, 大面积连续, 小面积连续, 两极, 中部环状"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WLN4:WLN16 WBR4:WBR16 VRV4:VRV16 VHZ4:VHZ16 UYD4:UYD16 UOH4:UOH16 UEL4:UEL16 TUP4:TUP16 TKT4:TKT16 TAX4:TAX16 SRB4:SRB16 SHF4:SHF16 RXJ4:RXJ16 RNN4:RNN16 RDR4:RDR16 QTV4:QTV16 QJZ4:QJZ16 QAD4:QAD16 PQH4:PQH16 PGL4:PGL16 OWP4:OWP16 OMT4:OMT16 OCX4:OCX16 NTB4:NTB16 NJF4:NJF16 MZJ4:MZJ16 MPN4:MPN16 MFR4:MFR16 LVV4:LVV16 LLZ4:LLZ16 LCD4:LCD16 KSH4:KSH16 KIL4:KIL16 JYP4:JYP16 JOT4:JOT16 JEX4:JEX16 IVB4:IVB16 ILF4:ILF16 IBJ4:IBJ16 HRN4:HRN16 HHR4:HHR16 GXV4:GXV16 GNZ4:GNZ16 GED4:GED16 FUH4:FUH16 FKL4:FKL16 FAP4:FAP16 EQT4:EQT16 EGX4:EGX16 DXB4:DXB16 DNF4:DNF16 DDJ4:DDJ16 CTN4:CTN16 CJR4:CJR16 BZV4:BZV16 BPZ4:BPZ16 BGD4:BGD16 AWH4:AWH16 AML4:AML16 ACP4:ACP16 ST4:ST16 IX4:IX16 WVJ4:WVJ16 D4:D16" xr:uid="{0E2BBBF7-4C07-47BD-8778-0ABAEE97B30A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D16 WVJ5:WVJ16 IX5:IX16 ST5:ST16 ACP5:ACP16 AML5:AML16 AWH5:AWH16 BGD5:BGD16 BPZ5:BPZ16 BZV5:BZV16 CJR5:CJR16 CTN5:CTN16 DDJ5:DDJ16 DNF5:DNF16 DXB5:DXB16 EGX5:EGX16 EQT5:EQT16 FAP5:FAP16 FKL5:FKL16 FUH5:FUH16 GED5:GED16 GNZ5:GNZ16 GXV5:GXV16 HHR5:HHR16 HRN5:HRN16 IBJ5:IBJ16 ILF5:ILF16 IVB5:IVB16 JEX5:JEX16 JOT5:JOT16 JYP5:JYP16 KIL5:KIL16 KSH5:KSH16 LCD5:LCD16 LLZ5:LLZ16 LVV5:LVV16 MFR5:MFR16 MPN5:MPN16 MZJ5:MZJ16 NJF5:NJF16 NTB5:NTB16 OCX5:OCX16 OMT5:OMT16 OWP5:OWP16 PGL5:PGL16 PQH5:PQH16 QAD5:QAD16 QJZ5:QJZ16 QTV5:QTV16 RDR5:RDR16 RNN5:RNN16 RXJ5:RXJ16 SHF5:SHF16 SRB5:SRB16 TAX5:TAX16 TKT5:TKT16 TUP5:TUP16 UEL5:UEL16 UOH5:UOH16 UYD5:UYD16 VHZ5:VHZ16 VRV5:VRV16 WBR5:WBR16 WLN5:WLN16" xr:uid="{0E2BBBF7-4C07-47BD-8778-0ABAEE97B30A}">
       <formula1>"Pyramidal, Cubical, Polyhedral, Rounded"</formula1>
     </dataValidation>
   </dataValidations>
